--- a/total_svf_gvi_bvi_250613.xlsx
+++ b/total_svf_gvi_bvi_250613.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_연구2_250518\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsj54\OneDrive\Desktop\streamlit_idw_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E696FC3B-0C26-4273-81AC-BD543D8AE976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD49D87-5F6E-4B57-B7FC-C39E2433C936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="1140" windowWidth="23040" windowHeight="12150" xr2:uid="{2E073FA9-0D60-4056-AABC-99E143880954}"/>
+    <workbookView xWindow="13470" yWindow="1425" windowWidth="23040" windowHeight="12150" xr2:uid="{2E073FA9-0D60-4056-AABC-99E143880954}"/>
   </bookViews>
   <sheets>
     <sheet name="gps 포함" sheetId="5" r:id="rId1"/>
@@ -430,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,21 +796,21 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.59765625" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="2"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -839,17 +845,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="9">
@@ -874,17 +880,17 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="9">
@@ -909,17 +915,17 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="9">
@@ -944,17 +950,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="9">
@@ -979,17 +985,17 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="9">
@@ -1014,17 +1020,17 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="9">
@@ -1049,17 +1055,17 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="9">
@@ -1084,17 +1090,17 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="9">
@@ -1119,17 +1125,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="9">
@@ -1154,17 +1160,17 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="9">
@@ -1189,17 +1195,17 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="9">
@@ -1224,17 +1230,17 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="9">
@@ -1259,17 +1265,17 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="9">
@@ -1294,17 +1300,17 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="9">
@@ -1329,17 +1335,17 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="12">
@@ -1364,17 +1370,17 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="12">
@@ -1399,17 +1405,17 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="13">
@@ -1434,17 +1440,17 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="13">
@@ -1469,17 +1475,17 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="13">
